--- a/src/test/resources/TestData/createuser.xlsx
+++ b/src/test/resources/TestData/createuser.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karth\eclipse-workspace\RestAssuredAPI\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A411490F-D92B-4618-8558-4805D50CF010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B267C317-13C3-483A-995B-E30F221E8637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3204" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{14025E8F-A33D-4C8E-B986-8759252F351D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{14025E8F-A33D-4C8E-B986-8759252F351D}"/>
   </bookViews>
   <sheets>
     <sheet name="post" sheetId="1" r:id="rId1"/>
@@ -118,9 +118,6 @@
     <t>hema</t>
   </si>
   <si>
-    <t>ji@gmail.com</t>
-  </si>
-  <si>
     <t>io-9</t>
   </si>
   <si>
@@ -152,6 +149,9 @@
   </si>
   <si>
     <t>ty-8</t>
+  </si>
+  <si>
+    <t>ji2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -522,11 +522,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A1FB15-9B5B-449D-A8C9-2A63698BEF6B}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -557,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -568,7 +571,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>7890879065</v>
+        <v>7890879064</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -621,7 +624,7 @@
         <v>56784</v>
       </c>
       <c r="J3">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -653,7 +656,7 @@
         <v>56784</v>
       </c>
       <c r="J4">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -664,13 +667,13 @@
         <v>26</v>
       </c>
       <c r="C5">
-        <v>9099090876</v>
+        <v>9099090875</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
         <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -703,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC92F0E-B236-41D4-9BB0-1CFDE09E0441}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3:J4"/>
     </sheetView>
   </sheetViews>
@@ -741,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -755,13 +758,13 @@
         <v>8978675645</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -787,10 +790,10 @@
         <v>8978675695</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
         <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
       </c>
       <c r="F3">
         <v>45</v>
@@ -810,19 +813,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
       </c>
       <c r="C4">
         <v>897634214</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
         <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
